--- a/counters.xlsx
+++ b/counters.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>№ п/п</t>
   </si>
@@ -41,10 +41,13 @@
     <t>Счётчик</t>
   </si>
   <si>
-    <t>Показания</t>
+    <t>Локация</t>
   </si>
   <si>
-    <t>Комментарий</t>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>Состояние</t>
   </si>
   <si>
     <t>К 483 РО 77</t>
@@ -56,13 +59,13 @@
     <t>KILOMETER</t>
   </si>
   <si>
+    <t>Неисправен</t>
+  </si>
+  <si>
     <t>Н 975 МА 777</t>
   </si>
   <si>
     <t>PM METER PS</t>
-  </si>
-  <si>
-    <t>Неисправен</t>
   </si>
   <si>
     <t>PM METER DS</t>
@@ -72,9 +75,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>В ремонте</t>
   </si>
   <si>
     <t>Убыло</t>
@@ -90,7 +90,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -588,137 +596,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,22 +742,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1285,22 +1296,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,6 +1330,9 @@
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1340,454 +1355,416 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="5">
+    <row r="3" spans="1:6">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>13466130</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>12793443</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12793443</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>11826840</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10744739</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>13466130</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8">
-        <v>671</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" ht="28.8" spans="1:6">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7">
-        <v>12793443</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C8" s="8">
+        <v>10738623</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10738623</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8">
-        <v>177470</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" ht="28.8" spans="1:6">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
-        <v>12793443</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8">
-        <v>14276</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="28.8" spans="1:6">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>11826840</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C10" s="8">
+        <v>10728379</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8">
-        <v>855</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="28.8" spans="1:6">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>10744739</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C11" s="8">
+        <v>10728379</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8">
-        <v>301</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="28.8" spans="1:6">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7">
-        <v>10738623</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11355407</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8">
-        <v>357342</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="28.8" spans="1:6">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7">
-        <v>10738623</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8">
-        <v>23525</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="28.8" spans="1:6">
-      <c r="A10" s="5">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11567499</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8">
+        <v>11567499</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11567499</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11292865</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11292865</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8">
+        <v>11292865</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8">
+        <v>10728382</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10728382</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7">
-        <v>10728379</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8">
+        <v>11323459</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11323459</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8">
-        <v>24326</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" ht="28.8" spans="1:6">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10728379</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2463</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="28.8" spans="1:6">
-      <c r="A12" s="5">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10856476</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10307536</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8">
+        <v>11676514</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="8">
+        <v>13248965</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8">
+        <v>11064148</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7">
-        <v>11355407</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1093</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="28.8" spans="1:6">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7">
-        <v>11567499</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" spans="1:6">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7">
-        <v>11567499</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="8">
-        <v>9307</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" ht="28.8" spans="1:6">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11567499</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8">
-        <v>11411</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="28.8" spans="1:6">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11292865</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8">
-        <v>22108</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" ht="28.8" spans="1:6">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>11292865</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="8">
-        <v>14690</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" ht="28.8" spans="1:6">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11292865</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2970</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" ht="28.8" spans="1:6">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10728382</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="8">
-        <v>253115</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="28.8" spans="1:6">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10728382</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="8">
-        <v>14851</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11323459</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11323459</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10856476</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4530</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10307536</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2634</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7">
-        <v>11676514</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="8">
-        <v>9700</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="7">
-        <v>13248965</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8">
-        <v>890</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="7">
-        <v>11064148</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
